--- a/tools/shop.xlsx
+++ b/tools/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-66820" yWindow="-260" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-64600" yWindow="-1080" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>punkA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pubkB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -516,50 +504,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/tools/shop.xlsx
+++ b/tools/shop.xlsx
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,244 +520,334 @@
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>250</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1000</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>500</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>400</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>200</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>300</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>300</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>500</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>100</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tools/shop.xlsx
+++ b/tools/shop.xlsx
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -539,7 +539,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -550,7 +550,7 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -561,7 +561,7 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -572,7 +572,7 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -583,7 +583,7 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -594,7 +594,7 @@
         <v>250</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -605,7 +605,7 @@
         <v>250</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -616,7 +616,7 @@
         <v>500</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -627,7 +627,7 @@
         <v>500</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -638,7 +638,7 @@
         <v>600</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -649,7 +649,7 @@
         <v>400</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -660,7 +660,7 @@
         <v>300</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -671,7 +671,7 @@
         <v>200</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -682,7 +682,7 @@
         <v>1000</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -693,7 +693,7 @@
         <v>1000</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -704,7 +704,7 @@
         <v>1100</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -715,7 +715,7 @@
         <v>1200</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -726,7 +726,7 @@
         <v>500</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -737,7 +737,7 @@
         <v>600</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -748,7 +748,7 @@
         <v>300</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -759,7 +759,7 @@
         <v>400</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -770,7 +770,7 @@
         <v>100</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -781,7 +781,7 @@
         <v>200</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -792,7 +792,7 @@
         <v>300</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -803,7 +803,7 @@
         <v>300</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -814,7 +814,7 @@
         <v>500</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -825,7 +825,7 @@
         <v>100</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -836,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -847,6 +847,17 @@
         <v>100</v>
       </c>
       <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
         <v>30</v>
       </c>
     </row>

--- a/tools/shop.xlsx
+++ b/tools/shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-64600" yWindow="-1080" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-33060" yWindow="-820" windowWidth="25600" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="shop" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>role_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_ads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -520,7 +524,7 @@
     <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,8 +534,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,8 +548,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,8 +562,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -563,8 +576,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -574,8 +590,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -585,8 +604,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -596,8 +618,11 @@
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -607,8 +632,11 @@
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -618,8 +646,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -629,8 +660,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -640,8 +674,11 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -651,8 +688,11 @@
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -662,8 +702,11 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -673,8 +716,11 @@
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -684,8 +730,11 @@
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -695,8 +744,11 @@
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -706,8 +758,11 @@
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -717,8 +772,11 @@
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -728,8 +786,11 @@
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -739,8 +800,11 @@
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -750,8 +814,11 @@
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -761,8 +828,11 @@
       <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -772,8 +842,11 @@
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -783,8 +856,11 @@
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -794,8 +870,11 @@
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -805,8 +884,11 @@
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -816,8 +898,11 @@
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -827,8 +912,11 @@
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -838,8 +926,11 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -849,8 +940,11 @@
       <c r="C30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -859,6 +953,9 @@
       </c>
       <c r="C31">
         <v>30</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
